--- a/medicine/Handicap/Pour_que_la_vie_continue_/Pour_que_la_vie_continue_.xlsx
+++ b/medicine/Handicap/Pour_que_la_vie_continue_/Pour_que_la_vie_continue_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pour que la vie continue... (The Brooke Ellison Story) est un téléfilm américain réalisé par Christopher Reeve et diffusé le 25 octobre 2004 sur A&amp;E.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'histoire vraie du combat d'une famille dont la fille cadette, Brooke Ellison, est devenue tétraplégique à la suite d'un accident. Brooke est admise à Harvard où elle fait la rencontre de Jan à la suite d'un cours sur Joseph Conrad, un Senior en dernière année à Harvard. Elle croit alors avoir trouvé l'amour qu'elle imaginait impossible jusqu'au jour où Jan quitta Harvard.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Scénario : Brooke Ellison et Jean Ellison
 Durée : 120 minutes
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary Elizabeth Mastrantonio (VF : Anne Rondeleux) : Jean Ellison
 John Slattery (VF : Éric Legrand) : Ed Ellison
@@ -590,7 +608,7 @@
 Marco St. John : le professeur de littérature
 John McConnell : M. Jacobs
 Dana Reeve : le professeur d'anglais
- Source et légende : version française (VF) sur RS Doublage[1] et selon le carton de doublage français.
+ Source et légende : version française (VF) sur RS Doublage et selon le carton de doublage français.
 </t>
         </is>
       </c>
